--- a/Maestro estudi_oferta.xlsx
+++ b/Maestro estudi_oferta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rubén\Dropbox\Estudi d'oferta\2023\APP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joana.APCE\Dropbox\Estudi d'oferta\2023\APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E880A199-43CF-4B2B-B1C8-60EF18FF5786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78DB073-5284-4008-A919-16DB0DBF5CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6B51934-030E-4F38-A25F-B8FC0573C03F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6B51934-030E-4F38-A25F-B8FC0573C03F}"/>
   </bookViews>
   <sheets>
     <sheet name="Maestro" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5111" uniqueCount="1976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5112" uniqueCount="1976">
   <si>
     <t>Corones</t>
   </si>
@@ -6055,7 +6055,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Maestro"/>
@@ -6842,8 +6842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACDC085-0767-48FA-80FF-C3C0C4859504}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10008,9 +10008,8 @@
         <f>VLOOKUP(A127,corones!$A$1:$B$200,2,FALSE)</f>
         <v>08 Municipis Àrea turística de muntanya. Girona</v>
       </c>
-      <c r="E127" t="str">
-        <f>VLOOKUP(A127,Codiine!$A$1:$D$948,4,FALSE)</f>
-        <v>Lleida</v>
+      <c r="E127" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="F127" t="str">
         <f>VLOOKUP(A127,Codiine!$A$1:$D$2000,2,FALSE)</f>
